--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>647897.378430664</v>
+        <v>729064.2240284793</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12426458.88989895</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240763</v>
+        <v>6381813.161497345</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9718742.18639051</v>
+        <v>9394696.505087467</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
-        <v>51.62082421009598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554011</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>107.297782492468</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -804,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>55.94174219837129</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>82.11825897670684</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>237.2821509272387</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>65.12332322602488</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -984,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>120.7377899292997</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>80.07341750140164</v>
+        <v>99.24927451795918</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1136,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>278.0818333067235</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>193.1994278308467</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>1.781160222249216</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>67.22331801800635</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1375,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>85.17289288834945</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>245.78538732502</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1469,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>52.23490948285886</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>74.75769145492336</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,13 +1615,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>126.7498226612772</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>168.1158122680958</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>62.09581973348946</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1783,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>149.2419515106218</v>
       </c>
     </row>
     <row r="17">
@@ -1844,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>24.27311936183922</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>94.48315401755836</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.3879184575337</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>217.3887619279223</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>229.796569204138</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>173.5578851713647</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744764</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2324,16 +2326,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>321.4267434728692</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>61.4169936080627</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>49.54974036904216</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>129.5765970421783</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,10 +2563,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>33.24139751941117</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>22.94224839230048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>50.36860283745263</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.70057996958644</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>173.5578851713661</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>63.425456563167</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>6.380068175847874</v>
+        <v>106.5867442799591</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>244.2230125550532</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>52.23490948285971</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.67976296843104</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3275,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>57.92518451681239</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>229.796569204137</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.1670621529072</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>148.5873298926978</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2901074925137028</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952955</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3667,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>2.606551540551559</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -3715,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>267.1729622295799</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3743,16 +3745,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>195.0465954186442</v>
       </c>
       <c r="E41" t="n">
-        <v>126.7498226612777</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3907,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>62.09581973348946</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>74.7572422460772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3983,13 +3985,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>126.7498226612768</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.8155920105732</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>65.110189493964</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>904.8820361188232</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C2" t="n">
-        <v>904.8820361188232</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>904.8820361188232</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="E2" t="n">
-        <v>519.0937835205789</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="F2" t="n">
-        <v>519.0937835205789</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>103.3890332448677</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H2" t="n">
-        <v>103.3890332448677</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>49.28269087917602</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>142.2640879052543</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y2" t="n">
-        <v>1291.481876182945</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542606</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057902</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>458.7060632252739</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>1092.885047004312</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>503.6022960313624</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>946.4739215287841</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>946.4739215287841</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>718.3380755655976</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>483.1859673338549</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>825.1371474485136</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="C4" t="n">
-        <v>825.1371474485136</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>227.4292644420552</v>
       </c>
       <c r="V4" t="n">
-        <v>825.1371474485136</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="W4" t="n">
-        <v>825.1371474485136</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="X4" t="n">
-        <v>825.1371474485136</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="Y4" t="n">
-        <v>825.1371474485136</v>
+        <v>144.4815281019473</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1445.96558289315</v>
+        <v>401.6348951448435</v>
       </c>
       <c r="C5" t="n">
-        <v>1445.96558289315</v>
+        <v>401.6348951448435</v>
       </c>
       <c r="D5" t="n">
-        <v>1087.699884286399</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E5" t="n">
-        <v>701.9116316881548</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F5" t="n">
-        <v>290.9257268985472</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G5" t="n">
-        <v>290.9257268985472</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2102.67869233291</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>1849.07152799542</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1518.008640651849</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>1165.239985381735</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868961</v>
+        <v>791.7742271206553</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.96558289315</v>
+        <v>401.6348951448435</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>758.3254512019777</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>583.8724219208507</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>434.9380122595995</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>275.700557254144</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K6" t="n">
-        <v>482.9033490193026</v>
+        <v>508.4654164929048</v>
       </c>
       <c r="L6" t="n">
-        <v>777.6069060507743</v>
+        <v>766.0165520528924</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009994</v>
+        <v>1226.335642450115</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.15405360694</v>
+        <v>1569.118166444747</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783102</v>
+        <v>1860.477412699312</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2074.985828260213</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2046.502463339704</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>1851.79214181368</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>1623.690551946944</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1388.538443715201</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1134.301086987</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1134.301086987</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>926.5407882220456</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>686.1991671823603</v>
+        <v>618.6889197120242</v>
       </c>
       <c r="C7" t="n">
-        <v>517.2629842544534</v>
+        <v>618.6889197120242</v>
       </c>
       <c r="D7" t="n">
-        <v>367.1463448421176</v>
+        <v>618.6889197120242</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>618.6889197120242</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>471.7989722141139</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>303.6661428091322</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S7" t="n">
-        <v>1452.980473689674</v>
+        <v>1386.103586251264</v>
       </c>
       <c r="T7" t="n">
-        <v>1230.001992884409</v>
+        <v>1162.499728943887</v>
       </c>
       <c r="U7" t="n">
-        <v>940.8836553882471</v>
+        <v>873.3734079179111</v>
       </c>
       <c r="V7" t="n">
-        <v>686.1991671823603</v>
+        <v>618.6889197120242</v>
       </c>
       <c r="W7" t="n">
-        <v>686.1991671823603</v>
+        <v>618.6889197120242</v>
       </c>
       <c r="X7" t="n">
-        <v>686.1991671823603</v>
+        <v>618.6889197120242</v>
       </c>
       <c r="Y7" t="n">
-        <v>686.1991671823603</v>
+        <v>618.6889197120242</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1412.134398099142</v>
+        <v>1059.365742829027</v>
       </c>
       <c r="C8" t="n">
-        <v>1043.17188115873</v>
+        <v>690.4032258886157</v>
       </c>
       <c r="D8" t="n">
-        <v>1043.17188115873</v>
+        <v>332.1375272818652</v>
       </c>
       <c r="E8" t="n">
-        <v>657.3836285604862</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F8" t="n">
-        <v>246.3977237708786</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872917</v>
@@ -4841,13 +4843,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139076</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163264</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.04593830764878</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>53.04593830764878</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>53.04593830764878</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>53.04593830764878</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>53.04593830764878</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>53.04593830764878</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>53.04593830764878</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4990,22 +4992,22 @@
         <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485136</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426267</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="W10" t="n">
-        <v>281.0354892056661</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="X10" t="n">
-        <v>53.04593830764878</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.04593830764878</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1232.248790760447</v>
+        <v>921.7704558796238</v>
       </c>
       <c r="C11" t="n">
-        <v>863.2862738200351</v>
+        <v>552.8079389392121</v>
       </c>
       <c r="D11" t="n">
-        <v>863.2862738200351</v>
+        <v>194.5422403324616</v>
       </c>
       <c r="E11" t="n">
-        <v>477.498021221791</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W11" t="n">
-        <v>2382.45372106146</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X11" t="n">
-        <v>2008.98796280038</v>
+        <v>1698.509627919557</v>
       </c>
       <c r="Y11" t="n">
-        <v>1618.848630824569</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="12">
@@ -5112,19 +5114,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,7 +5135,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
         <v>2407.41198488674</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.0249360836212</v>
+        <v>362.8175152271508</v>
       </c>
       <c r="C13" t="n">
-        <v>142.0249360836212</v>
+        <v>362.8175152271508</v>
       </c>
       <c r="D13" t="n">
-        <v>142.0249360836212</v>
+        <v>362.8175152271508</v>
       </c>
       <c r="E13" t="n">
-        <v>142.0249360836212</v>
+        <v>362.8175152271508</v>
       </c>
       <c r="F13" t="n">
-        <v>142.0249360836212</v>
+        <v>362.8175152271508</v>
       </c>
       <c r="G13" t="n">
-        <v>142.0249360836212</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H13" t="n">
-        <v>142.0249360836212</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J13" t="n">
         <v>111.6347488791189</v>
@@ -5203,19 +5205,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q13" t="n">
         <v>1927.294548088492</v>
@@ -5224,25 +5226,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U13" t="n">
         <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621292</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251686</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271513</v>
+        <v>362.8175152271508</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836212</v>
+        <v>362.8175152271508</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796256</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C14" t="n">
-        <v>552.807938939214</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>194.5422403324635</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>66.51211643218342</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919559</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943747</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,13 +5372,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1007.446783179745</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>838.5106002518381</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>688.3939608395024</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>540.4808672571093</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
         <v>477.7578170212613</v>
@@ -5431,55 +5433,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="W16" t="n">
-        <v>1637.877378051532</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="X16" t="n">
-        <v>1409.887827153515</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="Y16" t="n">
-        <v>1189.095248009985</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1944.904841306683</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="C17" t="n">
-        <v>1575.942324366272</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E17" t="n">
         <v>1190.154071768027</v>
@@ -5507,58 +5509,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
-        <v>3301.087519223474</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T17" t="n">
-        <v>3095.109771607697</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U17" t="n">
-        <v>3095.109771607697</v>
+        <v>3024.190544682726</v>
       </c>
       <c r="V17" t="n">
-        <v>3095.109771607697</v>
+        <v>2693.127657339155</v>
       </c>
       <c r="W17" t="n">
-        <v>3095.109771607697</v>
+        <v>2340.359002069041</v>
       </c>
       <c r="X17" t="n">
-        <v>2721.644013346617</v>
+        <v>1966.893243807961</v>
       </c>
       <c r="Y17" t="n">
-        <v>2331.504681370805</v>
+        <v>1576.753911832149</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,10 +5612,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>538.8965081646984</v>
+        <v>478.9911633238871</v>
       </c>
       <c r="C19" t="n">
-        <v>369.9603252367915</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="D19" t="n">
-        <v>369.9603252367915</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="E19" t="n">
-        <v>369.9603252367915</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F19" t="n">
-        <v>369.9603252367915</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G19" t="n">
-        <v>202.2574886115105</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5704,19 +5706,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1169.327103036486</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W19" t="n">
-        <v>1169.327103036486</v>
+        <v>660.6396281541269</v>
       </c>
       <c r="X19" t="n">
-        <v>941.3375521384683</v>
+        <v>660.6396281541269</v>
       </c>
       <c r="Y19" t="n">
-        <v>720.5449729949381</v>
+        <v>660.6396281541269</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1822.632236038044</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C20" t="n">
-        <v>1453.669719097632</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D20" t="n">
-        <v>1095.404020490882</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>709.6157678926375</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>298.6298631030299</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>298.6298631030299</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="W20" t="n">
-        <v>2972.837166339057</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.371408077977</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y20" t="n">
-        <v>2209.232076102166</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399798</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>3150.225125372327</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T22" t="n">
-        <v>2928.458509941853</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U22" t="n">
-        <v>2639.355643067496</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V22" t="n">
-        <v>2384.671154861609</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W22" t="n">
-        <v>2095.253984824649</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X22" t="n">
-        <v>1867.264433926632</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y22" t="n">
-        <v>1646.471854783102</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1619.798686923957</v>
+        <v>2212.771568013854</v>
       </c>
       <c r="C23" t="n">
-        <v>1250.836169983545</v>
+        <v>1843.809051073442</v>
       </c>
       <c r="D23" t="n">
-        <v>892.5704713767946</v>
+        <v>1485.543352466691</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>1099.755099868447</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>688.7691950788396</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.97538618064</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X23" t="n">
-        <v>2009.938018899768</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y23" t="n">
-        <v>1619.798686923957</v>
+        <v>2599.371408077976</v>
       </c>
     </row>
     <row r="24">
@@ -6060,25 +6062,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2220.922374419255</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C25" t="n">
-        <v>2220.922374419255</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D25" t="n">
-        <v>2170.872131622243</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.95903803985</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F25" t="n">
-        <v>1876.06909054194</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G25" t="n">
-        <v>1708.366253916659</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H25" t="n">
-        <v>1562.149067134517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399798</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T25" t="n">
-        <v>3235.775364366699</v>
+        <v>1796.409096530736</v>
       </c>
       <c r="U25" t="n">
-        <v>2946.672497492343</v>
+        <v>1507.30622965638</v>
       </c>
       <c r="V25" t="n">
-        <v>2691.988009286456</v>
+        <v>1252.621741450493</v>
       </c>
       <c r="W25" t="n">
-        <v>2402.570839249495</v>
+        <v>963.2045714135322</v>
       </c>
       <c r="X25" t="n">
-        <v>2402.570839249495</v>
+        <v>735.2150205155149</v>
       </c>
       <c r="Y25" t="n">
-        <v>2402.570839249495</v>
+        <v>514.4224413719847</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.798686923957</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.836169983545</v>
+        <v>1259.215687003708</v>
       </c>
       <c r="D26" t="n">
-        <v>892.5704713767946</v>
+        <v>900.9499883969577</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>515.1617357987134</v>
       </c>
       <c r="F26" t="n">
         <v>481.5845665871869</v>
@@ -6227,7 +6229,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6251,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V26" t="n">
-        <v>2755.806928794324</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W26" t="n">
-        <v>2403.038273524209</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X26" t="n">
-        <v>2029.572515263129</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y26" t="n">
-        <v>2006.398526988078</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I27" t="n">
         <v>66.5121164321834</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>923.9108438165264</v>
+        <v>973.5548741173881</v>
       </c>
       <c r="C28" t="n">
-        <v>754.9746608886195</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D28" t="n">
-        <v>604.8580214762837</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E28" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F28" t="n">
-        <v>310.0549803959802</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G28" t="n">
         <v>310.0549803959802</v>
@@ -6418,16 +6420,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V28" t="n">
-        <v>1843.758608725274</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W28" t="n">
-        <v>1554.341438688313</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X28" t="n">
-        <v>1326.351887790296</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y28" t="n">
-        <v>1105.559308646766</v>
+        <v>1155.203338947628</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1647.321240915451</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C29" t="n">
-        <v>1278.358723975039</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
@@ -6464,7 +6466,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6491,22 +6493,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3150.294826486578</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U29" t="n">
-        <v>3150.294826486578</v>
+        <v>3055.56195625282</v>
       </c>
       <c r="V29" t="n">
-        <v>3150.294826486578</v>
+        <v>2724.499068909249</v>
       </c>
       <c r="W29" t="n">
-        <v>2797.526171216464</v>
+        <v>2371.730413639134</v>
       </c>
       <c r="X29" t="n">
-        <v>2424.060412955384</v>
+        <v>1998.264655378055</v>
       </c>
       <c r="Y29" t="n">
-        <v>2033.921080979572</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="30">
@@ -6543,10 +6545,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>241.8928126690276</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="C31" t="n">
-        <v>72.95662974112065</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I31" t="n">
         <v>66.5121164321834</v>
@@ -6643,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V31" t="n">
-        <v>1161.740577577775</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W31" t="n">
-        <v>872.3234075408147</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X31" t="n">
-        <v>644.3338566427974</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y31" t="n">
-        <v>423.5412774992673</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1575.942324366272</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C32" t="n">
-        <v>1575.942324366272</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.942324366272</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>3078.915909937399</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W32" t="n">
-        <v>2726.147254667285</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X32" t="n">
-        <v>2352.681496406205</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y32" t="n">
-        <v>1962.542164430393</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>936.573581468607</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2320.988771034577</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="C34" t="n">
-        <v>2320.988771034577</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.872131622242</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.959038039849</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.069090541939</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3274.414141843078</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>3274.414141843078</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>3274.414141843078</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U34" t="n">
-        <v>2985.311274968722</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V34" t="n">
-        <v>2730.626786762835</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W34" t="n">
-        <v>2730.626786762835</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X34" t="n">
-        <v>2502.637235864817</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y34" t="n">
-        <v>2502.637235864817</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1590.514489367197</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C35" t="n">
-        <v>1221.551972426786</v>
+        <v>869.0763550278978</v>
       </c>
       <c r="D35" t="n">
-        <v>863.2862738200351</v>
+        <v>510.8106564211473</v>
       </c>
       <c r="E35" t="n">
-        <v>477.498021221791</v>
+        <v>125.022403822903</v>
       </c>
       <c r="F35" t="n">
-        <v>66.5121164321834</v>
+        <v>125.022403822903</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5121164321834</v>
+        <v>125.022403822903</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V35" t="n">
-        <v>3093.488074938325</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W35" t="n">
-        <v>2740.71941966821</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X35" t="n">
-        <v>2367.25366140713</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y35" t="n">
-        <v>1977.114329431319</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="36">
@@ -7005,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>452.6479724696239</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="C37" t="n">
-        <v>452.6479724696239</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="D37" t="n">
-        <v>452.6479724696239</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="E37" t="n">
-        <v>452.6479724696239</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="F37" t="n">
-        <v>452.6479724696239</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959802</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="H37" t="n">
-        <v>163.837793613838</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U37" t="n">
-        <v>1224.739181610489</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V37" t="n">
-        <v>970.0546934046018</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W37" t="n">
-        <v>680.6375233676413</v>
+        <v>1989.118339645848</v>
       </c>
       <c r="X37" t="n">
-        <v>452.6479724696239</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="Y37" t="n">
-        <v>452.6479724696239</v>
+        <v>1611.040576735004</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1590.807527238423</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C38" t="n">
-        <v>1221.845010298012</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D38" t="n">
-        <v>863.5793116912612</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>477.7910590930169</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>66.80515430340938</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912092</v>
@@ -7184,40 +7186,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V38" t="n">
-        <v>2741.012457539437</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W38" t="n">
-        <v>2741.012457539437</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X38" t="n">
-        <v>2367.546699278357</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y38" t="n">
-        <v>1977.407367302545</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7257,16 +7259,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
         <v>2407.411984886741</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>946.3334672034058</v>
+        <v>1881.201889474759</v>
       </c>
       <c r="C40" t="n">
-        <v>777.3972842754989</v>
+        <v>1712.265706546852</v>
       </c>
       <c r="D40" t="n">
-        <v>627.2806448631632</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U40" t="n">
-        <v>1638.191681214136</v>
+        <v>3055.734142589394</v>
       </c>
       <c r="V40" t="n">
-        <v>1638.191681214136</v>
+        <v>2801.049654383507</v>
       </c>
       <c r="W40" t="n">
-        <v>1348.774511177176</v>
+        <v>2511.632484346546</v>
       </c>
       <c r="X40" t="n">
-        <v>1348.774511177176</v>
+        <v>2283.642933448529</v>
       </c>
       <c r="Y40" t="n">
-        <v>1127.981932033646</v>
+        <v>2062.850354304999</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796261</v>
+        <v>1844.338003964586</v>
       </c>
       <c r="C41" t="n">
-        <v>552.8079389392144</v>
+        <v>1475.375487024174</v>
       </c>
       <c r="D41" t="n">
-        <v>194.5422403324639</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>66.51211643218342</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7433,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.50962791956</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943748</v>
+        <v>2230.937844028708</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1702.096133556939</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C42" t="n">
-        <v>1527.643104275812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D42" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E42" t="n">
-        <v>1219.471239609105</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F42" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G42" t="n">
-        <v>936.5735814686079</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H42" t="n">
-        <v>846.0716871064755</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I42" t="n">
-        <v>827.0643955080134</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J42" t="n">
-        <v>920.7416649986308</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K42" t="n">
-        <v>1159.005863978978</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L42" t="n">
-        <v>1525.704024291643</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M42" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N42" t="n">
-        <v>2446.503393068414</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O42" t="n">
-        <v>2857.464672486468</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P42" t="n">
-        <v>3167.964263962571</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q42" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R42" t="n">
-        <v>3325.461468201687</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S42" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T42" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U42" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V42" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W42" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X42" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y42" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F43" t="n">
         <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7600,19 +7602,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U43" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W43" t="n">
-        <v>1348.774511177176</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X43" t="n">
-        <v>1348.774511177176</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796252</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>552.8079389392135</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>194.542240332463</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>66.5121164321834</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>66.5121164321834</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
         <v>66.5121164321834</v>
@@ -7646,25 +7648,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7673,25 +7675,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919559</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943747</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>629.1078027362229</v>
+        <v>691.6489789975187</v>
       </c>
       <c r="C46" t="n">
-        <v>460.171619808316</v>
+        <v>522.7127960696118</v>
       </c>
       <c r="D46" t="n">
-        <v>310.0549803959802</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E46" t="n">
-        <v>310.0549803959802</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F46" t="n">
         <v>310.0549803959802</v>
@@ -7828,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>1548.361223971664</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V46" t="n">
-        <v>1293.676735765777</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W46" t="n">
-        <v>1004.259565728817</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X46" t="n">
-        <v>1004.259565728817</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="Y46" t="n">
-        <v>783.4669865852867</v>
+        <v>873.2974438277585</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>162.0073097921339</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26.13373767211354</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8295,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>186.4490126143851</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>141.8304999279933</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>122.4038561153564</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
-        <v>14.08908846237452</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>39.85215291973073</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22692,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22708,25 +22710,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>92.67373081984107</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,10 +22761,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>170.0193843471212</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22790,19 +22792,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
-        <v>63.73640163516671</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>142.948934643579</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22872,7 +22874,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -22881,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22911,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>16.83722396399951</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22926,7 +22928,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22942,25 +22944,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>114.5890428603358</v>
+        <v>97.93841624165668</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23024,16 +23026,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>103.8485367655383</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>218.3482749421073</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -23081,7 +23083,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>103.0154349816514</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23230,22 +23232,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>151.3613353340884</v>
       </c>
     </row>
     <row r="11">
@@ -23261,13 +23263,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>296.7574771839123</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -23276,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>103.455581392393</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>113.7908987761694</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>21.59472895491476</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>255.1805474109846</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>82.87935969080615</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>83.32522828944178</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23713,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>69.342701841473</v>
       </c>
     </row>
     <row r="17">
@@ -23732,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.91464242633663</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>156.5120179413436</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>10.36709645678704</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>69.13423640866873</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23972,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>64.81119518318249</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,10 +24022,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>77.43728678753729</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24145,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696548</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>89.49498218058426</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>308.3141070704064</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>99.0657326491702</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>89.97235223399085</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24449,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>373.6346482223003</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>363.2956902637531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>116.8782182611752</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>169.4370633542416</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24683,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,13 +24733,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>30.36008496825409</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>187.569715395735</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>142.2354048423645</v>
+        <v>42.02872873825321</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24974,7 +24976,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>83.5292459150817</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>113.7908987761685</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>38.25238970161629</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25163,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>236.6825798705081</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25208,10 +25210,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>97.9556892659979</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>24.85874610612098</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>69.99732345939702</v>
       </c>
     </row>
     <row r="38">
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.6316181609398</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -25448,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>158.5207149607581</v>
       </c>
     </row>
     <row r="39">
@@ -25555,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>143.8274111060176</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25603,16 +25605,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>19.03887597603295</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25631,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>159.6364462020388</v>
       </c>
       <c r="E41" t="n">
-        <v>255.1805474109841</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>83.32522828944178</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>143.8274111060176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25871,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>255.180547410985</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>181.1251564493167</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.01638817136413</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>83.50528352424836</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>780582.8535323238</v>
+        <v>521547.548366831</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>780582.8535323237</v>
+        <v>712972.0623492707</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>780582.8535323238</v>
+        <v>780582.8535323237</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860422.0189724619</v>
+        <v>860422.0189724618</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860422.018972462</v>
+        <v>860422.0189724619</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860422.0189724619</v>
+        <v>860422.0189724617</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860422.018972462</v>
+        <v>860422.0189724618</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860422.018972462</v>
+        <v>860422.0189724619</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860422.0189724619</v>
+        <v>860422.018972462</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860422.018972462</v>
+        <v>860422.0189724622</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860422.0189724619</v>
+        <v>860422.018972462</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860422.0189724619</v>
+        <v>860422.018972462</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>305971.6304943086</v>
+        <v>203966.5811971124</v>
       </c>
       <c r="C2" t="n">
+        <v>279547.2423401895</v>
+      </c>
+      <c r="D2" t="n">
         <v>305971.6304943087</v>
       </c>
-      <c r="D2" t="n">
-        <v>305971.6304943086</v>
-      </c>
       <c r="E2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="F2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="G2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="H2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="I2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="J2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="K2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="F2" t="n">
-        <v>340997.0989709205</v>
-      </c>
-      <c r="G2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="H2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="I2" t="n">
-        <v>340997.0989709208</v>
-      </c>
-      <c r="J2" t="n">
-        <v>340997.0989709205</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>340997.0989709204</v>
-      </c>
-      <c r="L2" t="n">
-        <v>340997.0989709205</v>
       </c>
       <c r="M2" t="n">
         <v>340997.0989709204</v>
       </c>
       <c r="N2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="O2" t="n">
         <v>340997.0989709204</v>
-      </c>
-      <c r="O2" t="n">
-        <v>340997.0989709205</v>
       </c>
       <c r="P2" t="n">
         <v>340997.0989709204</v>
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>308174.1417414034</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>99404.18284596088</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171905</v>
+        <v>182072.9798171902</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>68999.15441911427</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>71651.52831447154</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>24921.83922824962</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341485</v>
+        <v>47552.26579341477</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16175.59256035158</v>
+        <v>11859.77526465972</v>
       </c>
       <c r="C4" t="n">
-        <v>16175.59256035158</v>
+        <v>14549.24850679122</v>
       </c>
       <c r="D4" t="n">
-        <v>16175.59256035158</v>
+        <v>16175.59256035157</v>
       </c>
       <c r="E4" t="n">
-        <v>8550.515172066875</v>
+        <v>8550.51517206688</v>
       </c>
       <c r="F4" t="n">
+        <v>8550.51517206688</v>
+      </c>
+      <c r="G4" t="n">
         <v>8550.515172066862</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8550.515172066875</v>
       </c>
       <c r="H4" t="n">
         <v>8550.515172066862</v>
@@ -26467,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139326</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
@@ -26497,16 +26499,16 @@
         <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139328</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-917893.5180818071</v>
+        <v>-551028.9778630066</v>
       </c>
       <c r="C6" t="n">
-        <v>196858.2654941123</v>
+        <v>-128375.2297638774</v>
       </c>
       <c r="D6" t="n">
-        <v>196858.2654941125</v>
+        <v>97454.0826481515</v>
       </c>
       <c r="E6" t="n">
-        <v>76067.2634202698</v>
+        <v>76067.26342026998</v>
       </c>
       <c r="F6" t="n">
+        <v>258140.2432374605</v>
+      </c>
+      <c r="G6" t="n">
+        <v>258140.2432374601</v>
+      </c>
+      <c r="H6" t="n">
         <v>258140.2432374603</v>
       </c>
-      <c r="G6" t="n">
-        <v>258140.2432374606</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>258140.2432374603</v>
+      </c>
+      <c r="J6" t="n">
+        <v>189141.088818346</v>
+      </c>
+      <c r="K6" t="n">
+        <v>186488.7149229888</v>
+      </c>
+      <c r="L6" t="n">
+        <v>233218.4040092106</v>
+      </c>
+      <c r="M6" t="n">
+        <v>210587.9774440455</v>
+      </c>
+      <c r="N6" t="n">
         <v>258140.2432374604</v>
       </c>
-      <c r="I6" t="n">
-        <v>258140.2432374606</v>
-      </c>
-      <c r="J6" t="n">
-        <v>90535.06542747788</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>258140.2432374603</v>
-      </c>
-      <c r="L6" t="n">
-        <v>258140.2432374604</v>
-      </c>
-      <c r="M6" t="n">
-        <v>210587.9774440454</v>
-      </c>
-      <c r="N6" t="n">
-        <v>258140.2432374603</v>
-      </c>
-      <c r="O6" t="n">
-        <v>258140.2432374604</v>
       </c>
       <c r="P6" t="n">
         <v>258140.2432374603</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
@@ -26817,16 +26819,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022925</v>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>239.6556507682059</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>80.35422757985498</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>98.46987537387554</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>98.46987537387588</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>98.46987537387554</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,37 +31831,37 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -31868,7 +31870,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31917,16 +31919,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
         <v>300.7247737883114</v>
@@ -31935,19 +31937,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780294</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34223,7 +34225,7 @@
         <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002927</v>
@@ -34366,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34445,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>348.5948060356187</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>238.3094620181792</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K6" t="n">
-        <v>373.0365088578699</v>
+        <v>423.1432842295773</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>464.9687781790128</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
@@ -35258,19 +35260,19 @@
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>560.2586790698759</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>546.4575832202787</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37871,7 +37873,7 @@
         <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
